--- a/data/trans_camb/P1801_2016_2023-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1801_2016_2023-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>-1.513046934937012</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-1.473439024393397</v>
+        <v>-1.473439024393386</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-1.33869396333548</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.009694191105978</v>
+        <v>-6.849053943508027</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.956134705383122</v>
+        <v>-5.664280407889978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.522234208576235</v>
+        <v>-4.744792670376072</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.744775983393582</v>
+        <v>4.060910752187947</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.125262875958116</v>
+        <v>2.565204007548008</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.947382167617145</v>
+        <v>1.899811786587794</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>-0.02634886511841247</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.02244057673488358</v>
+        <v>-0.02244057673488341</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.0215544966808293</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.116586730685072</v>
+        <v>-0.115723927122091</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.08729475670010828</v>
+        <v>-0.08286645547158758</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.07183655092062605</v>
+        <v>-0.07479001392288324</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.06809065172332755</v>
+        <v>0.07226544057098365</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.03354158548913681</v>
+        <v>0.04063664391830642</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.03243095649264638</v>
+        <v>0.03166171996686976</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.6080320152229923</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-2.581078043822216</v>
+        <v>-2.581078043822205</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.9246356661072985</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.631403137802429</v>
+        <v>-2.754569199281526</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.689981608873299</v>
+        <v>-5.493806703411013</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.2607784925622</v>
+        <v>-3.11767414880112</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.88295024137609</v>
+        <v>3.996100731872481</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3751077083733086</v>
+        <v>0.5465522158621885</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.36369325654745</v>
+        <v>1.339854897331793</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>0.01395544555586182</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.04798354031028521</v>
+        <v>-0.047983540310285</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.01903738906936967</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05812142722331489</v>
+        <v>-0.06092323265285615</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1015105243424824</v>
+        <v>-0.09771571374170376</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.06562579691670649</v>
+        <v>-0.06310839413230343</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.09293738281045799</v>
+        <v>0.09585099933720982</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.00706066131608449</v>
+        <v>0.01160915936659154</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.02920769636348484</v>
+        <v>0.028280805893856</v>
       </c>
     </row>
     <row r="16">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>11.38691792871903</v>
+        <v>11.38691792871901</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>6.51741783057278</v>
+        <v>6.51741783057277</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>8.990389482048311</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.460775277446461</v>
+        <v>5.499549846835358</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.095610537822679</v>
+        <v>1.557626489805218</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.940516435330078</v>
+        <v>5.107065209076455</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.93976785307809</v>
+        <v>17.48025114259605</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.95147254857298</v>
+        <v>12.26168254893102</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.05539854867431</v>
+        <v>13.38573475648282</v>
       </c>
     </row>
     <row r="19">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.2706133909870675</v>
+        <v>0.2706133909870673</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.121029251032729</v>
+        <v>0.1210292510327288</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.1873928411348006</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1212295094815193</v>
+        <v>0.1208276478079915</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.0199869292533538</v>
+        <v>0.02497893413922116</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.09924006949664331</v>
+        <v>0.09928482793031733</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4656124485500448</v>
+        <v>0.4608718465375695</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2354146128710073</v>
+        <v>0.2440709137564331</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2885286329367505</v>
+        <v>0.2947605097044798</v>
       </c>
     </row>
     <row r="22">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>1.560513131334829</v>
+        <v>1.560513131334823</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-1.266495278662594</v>
+        <v>-1.266495278662583</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.1380836734589219</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7761692865035638</v>
+        <v>-0.7696064459580552</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.576185001352575</v>
+        <v>-3.555307934972737</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.540311871480681</v>
+        <v>-1.659130958174373</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.107493721883098</v>
+        <v>4.071965835352867</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8833995664369364</v>
+        <v>0.8917112231774007</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.035732305384166</v>
+        <v>1.874126287230619</v>
       </c>
     </row>
     <row r="25">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.03361568190394124</v>
+        <v>0.03361568190394112</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.02216385493388355</v>
+        <v>-0.02216385493388335</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.002660463450550699</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01624933067049131</v>
+        <v>-0.01589607117667624</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.06236282747340612</v>
+        <v>-0.06078738457733199</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.02901282251022935</v>
+        <v>-0.0313670580695222</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.09040798568309648</v>
+        <v>0.09106594858286358</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.01560582700354915</v>
+        <v>0.01588248632554935</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.0400380183770955</v>
+        <v>0.03671683452387849</v>
       </c>
     </row>
     <row r="28">
